--- a/class/三年二班.xlsx
+++ b/class/三年二班.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>name</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>李四</t>
+  </si>
+  <si>
+    <t>范总</t>
+  </si>
+  <si>
+    <t>杨总</t>
   </si>
 </sst>
 </file>
@@ -981,13 +987,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1102,6 +1108,52 @@
       </c>
       <c r="G5">
         <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/class/三年二班.xlsx
+++ b/class/三年二班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="12130" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,13 @@
     <t>pref3</t>
   </si>
   <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>grade</t>
+    <t>self_piece</t>
+  </si>
+  <si>
+    <t>win_tour</t>
+  </si>
+  <si>
+    <t>peer_piece</t>
   </si>
   <si>
     <t>张三</t>
@@ -990,10 +990,13 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="7" max="7" width="11.8333333333333" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1035,10 +1038,10 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1058,10 +1061,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:7">
@@ -1081,10 +1084,10 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1104,10 +1107,10 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1127,10 +1130,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1147,13 +1150,13 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>77</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/class/三年二班.xlsx
+++ b/class/三年二班.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12130" windowHeight="12060"/>
+    <workbookView windowWidth="24930" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>name</t>
   </si>
@@ -28,6 +28,15 @@
     <t>pref3</t>
   </si>
   <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>pre_test</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
     <t>self_piece</t>
   </si>
   <si>
@@ -49,7 +58,25 @@
     <t>李四</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>范总</t>
+  </si>
+  <si>
+    <t>女</t>
   </si>
   <si>
     <t>杨总</t>
@@ -666,8 +693,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -987,18 +1017,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
-    <col min="7" max="7" width="11.8333333333333" customWidth="1"/>
+    <col min="10" max="10" width="11.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1011,151 +1041,214 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="J7">
         <v>1</v>
       </c>
     </row>
